--- a/public/templates/liturgi_import_template.xlsx
+++ b/public/templates/liturgi_import_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Liturgi" sheetId="1" r:id="rId1"/>
+    <sheet name="liturgy" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,115 +410,57 @@
         <v>feast_name</v>
       </c>
       <c r="C1" t="str">
+        <v>liturgical_day_name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>celebration_rank</v>
+      </c>
+      <c r="E1" t="str">
+        <v>memorial_name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>saint_name</v>
+      </c>
+      <c r="G1" t="str">
         <v>color</v>
       </c>
-      <c r="D1" t="str">
+      <c r="H1" t="str">
         <v>cycle</v>
       </c>
-      <c r="E1" t="str">
+      <c r="I1" t="str">
         <v>bacaan1</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
+        <v>bacaan1_teks</v>
+      </c>
+      <c r="K1" t="str">
+        <v>bacaan2</v>
+      </c>
+      <c r="L1" t="str">
+        <v>bacaan2_teks</v>
+      </c>
+      <c r="M1" t="str">
         <v>mazmur</v>
       </c>
-      <c r="G1" t="str">
-        <v>bacaan2</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="N1" t="str">
+        <v>mazmur_teks</v>
+      </c>
+      <c r="O1" t="str">
+        <v>bait_pengantar_injil</v>
+      </c>
+      <c r="P1" t="str">
+        <v>bait_pengantar_injil_teks</v>
+      </c>
+      <c r="Q1" t="str">
         <v>injil</v>
       </c>
-      <c r="I1" t="str">
-        <v>bacaan1_teks</v>
-      </c>
-      <c r="J1" t="str">
-        <v>mazmur_teks</v>
-      </c>
-      <c r="K1" t="str">
-        <v>bacaan2_teks</v>
-      </c>
-      <c r="L1" t="str">
+      <c r="R1" t="str">
         <v>injil_teks</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2026-01-11</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pesta Pembaptisan Tuhan</v>
-      </c>
-      <c r="C2" t="str">
-        <v>white</v>
-      </c>
-      <c r="D2" t="str">
-        <v>C</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Yes 42:1-4.6-7</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Mzm 29:1-2.3ac-4.3b-9b-10</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v>Luk 3:15-16.21-22</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Contoh teks bacaan 1 lengkap.</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Contoh teks mazmur lengkap.</v>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v>Contoh teks injil lengkap.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2026-03-15</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Hari Minggu Prapaskah III</v>
-      </c>
-      <c r="C3" t="str">
-        <v>purple</v>
-      </c>
-      <c r="D3" t="str">
-        <v>C</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Kel 3:1-8a.13-15</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Mzm 103:1-2.3-4.6-7.8.11</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1Kor 10:1-6.10-12</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Luk 13:1-9</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Contoh teks bacaan 1 minggu prapaskah III.</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Contoh teks mazmur minggu prapaskah III.</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Contoh teks bacaan 2 minggu prapaskah III.</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Contoh teks injil minggu prapaskah III.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R1"/>
   </ignoredErrors>
 </worksheet>
 </file>